--- a/biology/Médecine/1105_en_santé_et_médecine/1105_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1105_en_santé_et_médecine/1105_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1105_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1105_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1105 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1105_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1105_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Une épidémie dénommée phlegmasia pestis, et « que le peuple surnomm[e] follette », se répand partout en Occident[1]. »
-« Une terrible épidémie, le mal des ardents, ravag[e] Arras et l'Artois[2]. »
-1104-1105 : une épidémie de variole « ravag[e] l'ensemble du Proche-Orient[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Une épidémie dénommée phlegmasia pestis, et « que le peuple surnomm[e] follette », se répand partout en Occident. »
+« Une terrible épidémie, le mal des ardents, ravag[e] Arras et l'Artois. »
+1104-1105 : une épidémie de variole « ravag[e] l'ensemble du Proche-Orient ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1105_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1105_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Guillaume[4], surnommé le Vieux, fonde, à Surgères [en Aunis], une aumônerie ou hôpital, près Saint-Gilles, afin d'y ouvrir un refuge aux pauvres et aux infirmes[5]. »
-Selon un document signé en 1143 par Burckhardt, évêque de Strasbourg, en Allemagne, le futur hôpital civil « reçoit biens et droits de l'évêque Cunon[6] ».
-Miracle du Saint-Cierge, qui survient pendant une épidémie d'ergotisme à Arras, en Flandre, et qui va inspirer à l'évêque Lambert, l'année suivante 1106, la fondation de la confrérie de Notre-Dame-des-Ardents[8].
-Un hôpital Sant'Ansano est mentionné à Sesto di Moriano, près de Lucques, en Toscane[9],[10].
-Vers 1105 : « création d'une collégiale implantée auprès de son château par Richard de Reviers, seigneur des lieux », établissement qui est à l'une des origines de l'hôtel-Dieu de Néhou, en Normandie[11].
-1105-1107 : fondation d'une maladrerie à Corbie, en Amiénois[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Guillaume, surnommé le Vieux, fonde, à Surgères [en Aunis], une aumônerie ou hôpital, près Saint-Gilles, afin d'y ouvrir un refuge aux pauvres et aux infirmes. »
+Selon un document signé en 1143 par Burckhardt, évêque de Strasbourg, en Allemagne, le futur hôpital civil « reçoit biens et droits de l'évêque Cunon ».
+Miracle du Saint-Cierge, qui survient pendant une épidémie d'ergotisme à Arras, en Flandre, et qui va inspirer à l'évêque Lambert, l'année suivante 1106, la fondation de la confrérie de Notre-Dame-des-Ardents.
+Un hôpital Sant'Ansano est mentionné à Sesto di Moriano, près de Lucques, en Toscane,.
+Vers 1105 : « création d'une collégiale implantée auprès de son château par Richard de Reviers, seigneur des lieux », établissement qui est à l'une des origines de l'hôtel-Dieu de Néhou, en Normandie.
+1105-1107 : fondation d'une maladrerie à Corbie, en Amiénois.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1105_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1105_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Giacinto II, clerc et médecin de l'école de Salerne[13].
-Fl. Landolfo, médecin de l'école de Salerne[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Giacinto II, clerc et médecin de l'école de Salerne.
+Fl. Landolfo, médecin de l'école de Salerne.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1105_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1105_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1105[14] ou vers 1110[15],[16] : Ibn Tufayl (mort en 1185), philosophe, astronome, médecin et mathématicien andalou.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1105 ou vers 1110, : Ibn Tufayl (mort en 1185), philosophe, astronome, médecin et mathématicien andalou.</t>
         </is>
       </c>
     </row>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1105_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1105_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13 juillet : Rachi (né en 1040), rabbin, exégète et talmudiste champenois, et très probablement médecin[17],[18].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>13 juillet : Rachi (né en 1040), rabbin, exégète et talmudiste champenois, et très probablement médecin,.</t>
         </is>
       </c>
     </row>
